--- a/Assets/Resources/Config/新手教程-直播间 - 副本.xlsx
+++ b/Assets/Resources/Config/新手教程-直播间 - 副本.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\CGJ2025\everything-is-a-live\Assets\Resources\Config\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{4C0ABC88-596C-4753-A8F8-33C14B41A63A}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{7F70090D-DE61-4BBA-9503-3402B1F68CF5}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="340" yWindow="460" windowWidth="19200" windowHeight="11170" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="12710" yWindow="0" windowWidth="12980" windowHeight="15370" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -25,37 +25,13 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="53" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="2" uniqueCount="2">
   <si>
     <t>S</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
     <t>T</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>W</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t xml:space="preserve">  </t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>cab_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>m_001</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_001L</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>pc_001R</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
@@ -87,19 +63,72 @@
     </font>
     <font>
       <sz val="11"/>
-      <color theme="1"/>
+      <color theme="2" tint="-0.499984740745262"/>
       <name val="等线"/>
-      <family val="3"/>
-      <charset val="134"/>
+      <family val="2"/>
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="11">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FF00B0F0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="5" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="4" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="8" tint="0.79998168889431442"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-0.499984740745262"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="2" tint="-9.9978637043366805E-2"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -114,12 +143,21 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="14">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="3" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="3" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="4" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="5" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="6" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="7" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="8" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="3" fillId="9" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="9" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="10" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="常规" xfId="0" builtinId="0"/>
@@ -143,13 +181,13 @@
     <xdr:from>
       <xdr:col>7</xdr:col>
       <xdr:colOff>607680</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>308151</xdr:rowOff>
     </xdr:from>
     <xdr:to>
       <xdr:col>7</xdr:col>
       <xdr:colOff>608040</xdr:colOff>
-      <xdr:row>3</xdr:row>
+      <xdr:row>4</xdr:row>
       <xdr:rowOff>308511</xdr:rowOff>
     </xdr:to>
     <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing">
@@ -194,6 +232,526 @@
             <a:xfrm>
               <a:off x="5173560" y="2451960"/>
               <a:ext cx="12600" cy="12600"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308006</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>517069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>308726</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>317386</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="4" name="墨迹 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD45F1B-DA8C-1909-53C9-31FA3B968A94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8145720" y="3383640"/>
+            <a:ext cx="720" cy="516960"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="4" name="墨迹 3">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{1FD45F1B-DA8C-1909-53C9-31FA3B968A94}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId4"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8133480" y="3377520"/>
+              <a:ext cx="25200" cy="529200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>166526</xdr:colOff>
+      <xdr:row>2</xdr:row>
+      <xdr:rowOff>344754</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>610406</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>134991</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId5">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="13" name="墨迹 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD67190D-6C98-A57E-C543-F777866D1AD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8004240" y="1778040"/>
+            <a:ext cx="443880" cy="506880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="13" name="墨迹 12">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{BD67190D-6C98-A57E-C543-F777866D1AD3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId6"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7998120" y="1771920"/>
+              <a:ext cx="456120" cy="519120"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>217646</xdr:colOff>
+      <xdr:row>3</xdr:row>
+      <xdr:rowOff>453591</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>432206</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>234829</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId7">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="14" name="墨迹 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E3109F-9A13-923A-3239-1220D4A12E8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8055360" y="2603520"/>
+            <a:ext cx="214560" cy="497880"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="14" name="墨迹 13">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{21E3109F-9A13-923A-3239-1220D4A12E8F}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId8"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8049240" y="2597404"/>
+              <a:ext cx="226800" cy="510111"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>220886</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>517069</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>481526</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>588709</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId9">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="15" name="墨迹 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E02E2E-BC52-463F-E527-7741549F1D47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="8058600" y="3383640"/>
+            <a:ext cx="260640" cy="71640"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="15" name="墨迹 14">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{27E02E2E-BC52-463F-E527-7741549F1D47}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId10"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="8052480" y="3377520"/>
+              <a:ext cx="272880" cy="83880"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>353469</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>498700</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>12</xdr:col>
+      <xdr:colOff>200006</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>499420</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId11">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="17" name="墨迹 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E800918D-4FBB-6FEC-1DDE-5EDF53B1CCE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7538040" y="5515200"/>
+            <a:ext cx="499680" cy="720"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="17" name="墨迹 16">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{E800918D-4FBB-6FEC-1DDE-5EDF53B1CCE1}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId12"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7531920" y="5502960"/>
+              <a:ext cx="511920" cy="25200"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>289389</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>491383</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>318549</xdr:colOff>
+      <xdr:row>7</xdr:row>
+      <xdr:rowOff>335980</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId13">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="18" name="墨迹 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F36933A-3790-A071-BAE7-F761E72AA4E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7473960" y="4791240"/>
+            <a:ext cx="29160" cy="561240"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="18" name="墨迹 17">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{7F36933A-3790-A071-BAE7-F761E72AA4E3}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId14"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7467840" y="4785120"/>
+              <a:ext cx="41400" cy="573480"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>217389</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>481546</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>272469</xdr:colOff>
+      <xdr:row>6</xdr:row>
+      <xdr:rowOff>308503</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId15">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="19" name="墨迹 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9997F51A-A101-9E46-4A5E-0BD12C5DBB3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="7401960" y="4064760"/>
+            <a:ext cx="55080" cy="543600"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="19" name="墨迹 18">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{9997F51A-A101-9E46-4A5E-0BD12C5DBB3A}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId16"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="7395840" y="4058640"/>
+              <a:ext cx="67320" cy="555840"/>
+            </a:xfrm>
+            <a:prstGeom prst="rect">
+              <a:avLst/>
+            </a:prstGeom>
+          </xdr:spPr>
+        </xdr:pic>
+      </mc:Fallback>
+    </mc:AlternateContent>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor editAs="oneCell">
+    <xdr:from>
+      <xdr:col>7</xdr:col>
+      <xdr:colOff>284400</xdr:colOff>
+      <xdr:row>4</xdr:row>
+      <xdr:rowOff>199189</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>11</xdr:col>
+      <xdr:colOff>109029</xdr:colOff>
+      <xdr:row>5</xdr:row>
+      <xdr:rowOff>445906</xdr:rowOff>
+    </xdr:to>
+    <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+      <mc:Choice xmlns:xdr14="http://schemas.microsoft.com/office/excel/2010/spreadsheetDrawing" Requires="xdr14">
+        <xdr:contentPart xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId17">
+          <xdr14:nvContentPartPr>
+            <xdr14:cNvPr id="31" name="墨迹 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D169484-BAC8-F9A1-4FD1-2AADD49ADE25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr14:cNvPr>
+            <xdr14:cNvContentPartPr/>
+          </xdr14:nvContentPartPr>
+          <xdr14:nvPr macro=""/>
+          <xdr14:xfrm>
+            <a:off x="4856400" y="3065760"/>
+            <a:ext cx="2437200" cy="963360"/>
+          </xdr14:xfrm>
+        </xdr:contentPart>
+      </mc:Choice>
+      <mc:Fallback>
+        <xdr:pic>
+          <xdr:nvPicPr>
+            <xdr:cNvPr id="31" name="墨迹 30">
+              <a:extLst>
+                <a:ext uri="{FF2B5EF4-FFF2-40B4-BE49-F238E27FC236}">
+                  <a16:creationId xmlns:a16="http://schemas.microsoft.com/office/drawing/2014/main" id="{5D169484-BAC8-F9A1-4FD1-2AADD49ADE25}"/>
+                </a:ext>
+              </a:extLst>
+            </xdr:cNvPr>
+            <xdr:cNvPicPr/>
+          </xdr:nvPicPr>
+          <xdr:blipFill>
+            <a:blip xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:embed="rId18"/>
+            <a:stretch>
+              <a:fillRect/>
+            </a:stretch>
+          </xdr:blipFill>
+          <xdr:spPr>
+            <a:xfrm>
+              <a:off x="4850279" y="3059640"/>
+              <a:ext cx="2449442" cy="975600"/>
             </a:xfrm>
             <a:prstGeom prst="rect">
               <a:avLst/>
@@ -231,6 +789,234 @@
     </inkml:brush>
   </inkml:definitions>
   <inkml:trace contextRef="#ctx0" brushRef="#br0">1 0 24575,'0'0'-8191</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink2.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:27:58.083"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">0 1436 21528,'0'-1435'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink3.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:01.291"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">419 51 24575,'0'480'0,"1"-465"0,1 0 0,0 1 0,6 19 0,-4-17 0,5 34 0,3 61 0,-5-59 0,-1 56 0,-5-91 0,0 0 0,1 0 0,9 35 0,-7-35 0,2 36 0,-5-37 0,1 0 0,6 27 0,-2-19-273,-2-1 0,-1 1 0,-1-1 0,-1 33 0,-1-36-6553</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="328.63">218 1 24575,'1'64'0,"-3"72"0,-1-121 0,0 0 0,-1-1 0,-1 1 0,0-1 0,-1 0 0,0-1 0,-15 24 0,10-18 0,1 1 0,-12 31 0,17-40-6,0 0 0,0 0 0,-1 0 0,-1-1 0,0 0 0,0 0 0,-1-1 0,0 0 0,-11 10 0,-15 17-1299,25-25-5521</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="635.95">369 25 24575,'24'0'0,"-6"-1"0,1 1 0,29 5 0,-42-4 0,1 1 0,-1 0 0,0 0 0,0 0 0,0 1 0,0 0 0,0 0 0,0 0 0,-1 1 0,0 0 0,6 5 0,86 66 0,-85-65 0,0 0 0,16 9 0,6 4 0,-2 0 0,-3-2 0,29 28 0,-49-41 0,0-1 0,19 11 0,14 11 0,-2 10 0,-31-28 0,2-1 0,-1 0 0,1 0 0,1-1 0,0-1 0,18 11 0,-15-12-7,-1 2 0,0 0-1,-1 0 1,0 1-1,0 1 1,11 12 0,11 9-1307,-23-22-5512</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink4.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:00.115"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">202 152 24575,'0'630'0,"1"-614"0,0-1 0,1 1 0,6 19 0,-3-17 0,3 34 0,7 99 0,-9-102-65,-2 0 1,-4 72-1,0-64-1106,0-35-5655</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="365.72">26 0 24575,'0'304'0,"-1"-285"42,-1 1 0,-8 32 0,0 7-1533,8-37-5335</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="646.1">252 50 24575,'2'1'0,"0"0"0,0 1 0,0-1 0,-1 0 0,1 1 0,0-1 0,0 1 0,-1-1 0,1 1 0,-1 0 0,1 0 0,-1-1 0,0 1 0,0 0 0,2 4 0,4 5 0,61 75 0,-60-76 0,-1 0 0,0 1 0,0-1 0,-1 1 0,-1 1 0,6 14 0,-8-18 0,10 18 0,1 0 0,19 27 0,-15-24 0,82 107-1365,-90-120-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink5.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:27:59.024"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">243 1 24575,'0'4'0,"-5"1"0,0 5 0,-5 0 0,-4-2 0,-5-1 0,2 1 0,-1 0 0,2 3 0,1-1 0,-3-1 0,3 1 0,-1-1 0,-2-1 0,2 1 0,0 0 0,2 2 0,4-1-8191</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="298.35">394 1 24575,'8'0'0,"0"1"0,1 0 0,-1 0 0,0 1 0,0 0 0,-1 0 0,1 1 0,0 0 0,-1 0 0,12 8 0,4 4 0,38 35 0,-38-30 0,26 17 0,-29-22 2,20 10-1369,-25-19-5459</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink6.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:05.976"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1387 1 21389,'-1387'0'0</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink7.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:08.101"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">52 1558 24575,'-1'-65'0,"3"-71"0,10 74 0,-8 46 0,0 1 0,0-21 0,-1-269 0,-5 157 0,2-280 0,-1 415 0,0 0 0,0 0 0,-2 0 0,1 0 0,-8-20 0,-30-60 0,39 91 0,-3-11-167,0 0 0,1 0 0,0 0 0,1 0 0,0-1-1,1 1 1,2-27 0,-1 40 139,0-22-6798</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink8.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:10.415"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">1 1510 24575,'0'-2'0,"1"0"0,0 0 0,0 0 0,-1 0 0,1 0 0,0 0 0,1 0 0,-1 0 0,2-2 0,7-12 0,-3-8 0,0 1 0,-2-1 0,0-1 0,1-35 0,-5 52 0,10-65 0,-6 43 0,3-45 0,-7 53 0,1 0 0,1 0 0,7-22 0,-6 14-67,0 1 0,-1-1 0,-4-57 1,0 56-20,1 0 1,1-1 0,8-41 0,-3 32 217,-2 1 1,-1-1 0,-3-48 0,2-53-56,10 64-77,-6 52 0,2-46 0,-8-54-1365,0 105-5461</inkml:trace>
+</inkml:ink>
+</file>
+
+<file path=xl/ink/ink9.xml><?xml version="1.0" encoding="utf-8"?>
+<inkml:ink xmlns:inkml="http://www.w3.org/2003/InkML">
+  <inkml:definitions>
+    <inkml:context xml:id="ctx0">
+      <inkml:inkSource xml:id="inkSrc0">
+        <inkml:traceFormat>
+          <inkml:channel name="X" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="Y" type="integer" min="-2.14748E9" max="2.14748E9" units="cm"/>
+          <inkml:channel name="F" type="integer" max="32767" units="dev"/>
+        </inkml:traceFormat>
+        <inkml:channelProperties>
+          <inkml:channelProperty channel="X" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="Y" name="resolution" value="1000" units="1/cm"/>
+          <inkml:channelProperty channel="F" name="resolution" value="0" units="1/dev"/>
+        </inkml:channelProperties>
+      </inkml:inkSource>
+      <inkml:timestamp xml:id="ts0" timeString="2025-06-28T14:28:15.631"/>
+    </inkml:context>
+    <inkml:brush xml:id="br0">
+      <inkml:brushProperty name="width" value="0.035" units="cm"/>
+      <inkml:brushProperty name="height" value="0.035" units="cm"/>
+    </inkml:brush>
+  </inkml:definitions>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0">6769 2646 24575,'-44'0'0,"22"-2"0,1 2 0,-1 1 0,1 1 0,-40 8 0,36-4 0,0-2 0,-1 0 0,-33 1 0,-80-7 0,49 0 0,-485 2-1365,559 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="480.82">5610 2672 24575,'0'-54'0,"1"-72"0,1 105 0,1 0 0,0 0 0,13-40 0,41-90 0,-46 118-264,-1-1 0,-1 1 0,7-69 0,7-23 264,-13 82 0,-5 29 0,-2-1 0,3-17 0,7-46 453,-8 50-152,4-39 1,4-29-781,-8 66 201,3-46 0,-7 47 278,1 1 0,9-51 0,-5 41 219,-1 0 1,-3-1-1,-4-65 1,1 31-1428,1 52-5618</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="899.28">5862 934 24575,'-1588'0'0,"1574"0"-249,0 2 0,0 0-1,1 1 1,-16 5 0,28-8 130,-16 5-6707</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="1493.71">4048 959 24575,'-16'1'0,"0"1"0,0 0 0,-17 5 0,15-3 0,-34 4 0,-271-6 0,166-3 0,-735 1-1365,875 0-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2090.69">2385 984 24575,'-1211'0'-857,"1185"-2"857,0 0 0,-27-7 0,25 4 0,-41-2 0,42 6 41,-17 0 231,1-1 0,-44-9 0,32 3-283,-1 4 0,1 1 0,-57 6-1,13-1-1308,77-2-5506</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2553.31">345 934 24575,'0'-883'-1365,"0"861"-5461</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="2915.92">345 1 24575,'-7'0'0,"1"1"0,0 0 0,0 1 0,0-1 0,0 1 0,0 0 0,0 1 0,1-1 0,-11 8 0,-2 1 0,-25 22 0,31-23 0,5-3 0,0-1 0,-1 0 0,0 0 0,0-1 0,0 0 0,-11 5 0,6-5-124,1 1 0,0 1 0,1 0 0,0 0 0,0 1 0,0 1-1,1 0 1,0 0 0,1 1 0,-8 11 0,8-9-6702</inkml:trace>
+  <inkml:trace contextRef="#ctx0" brushRef="#br0" timeOffset="3181.8">293 26 24575,'4'2'0,"0"-1"0,0 1 0,0 0 0,-1 0 0,1 0 0,-1 1 0,1-1 0,-1 1 0,0 0 0,0 0 0,0 0 0,3 4 0,2 1 0,172 151 0,-144-129 0,68 46 0,-59-45 0,-1 4 0,-30-23 0,1-1 0,21 14 0,-21-15 0,0 0 0,0 1 0,22 22 0,-9-14-1365,-13-9-5461</inkml:trace>
 </inkml:ink>
 </file>
 
@@ -497,218 +1283,164 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:P8"/>
+  <dimension ref="A1:O10"/>
   <sheetViews>
     <sheetView tabSelected="1" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="J4" sqref="J4"/>
+      <selection activeCell="K12" sqref="K12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="8.58203125" defaultRowHeight="56.75" customHeight="1" x14ac:dyDescent="0.3"/>
   <sheetData>
-    <row r="1" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A1" t="s">
-        <v>2</v>
-      </c>
-      <c r="B1" t="s">
-        <v>2</v>
-      </c>
-      <c r="C1" t="s">
-        <v>2</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
-      </c>
-      <c r="E1" t="s">
-        <v>2</v>
-      </c>
-      <c r="F1" t="s">
-        <v>2</v>
-      </c>
-      <c r="G1" t="s">
-        <v>2</v>
-      </c>
-      <c r="H1" t="s">
-        <v>2</v>
-      </c>
-      <c r="I1" t="s">
-        <v>2</v>
-      </c>
-      <c r="J1" t="s">
-        <v>2</v>
-      </c>
-      <c r="K1" t="s">
-        <v>2</v>
-      </c>
-      <c r="L1" t="s">
-        <v>2</v>
-      </c>
-      <c r="M1" t="s">
-        <v>2</v>
-      </c>
-      <c r="N1" t="s">
-        <v>2</v>
-      </c>
-      <c r="O1" t="s">
-        <v>2</v>
-      </c>
-      <c r="P1" t="s">
-        <v>2</v>
-      </c>
+    <row r="1" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A1" s="1"/>
+      <c r="B1" s="1"/>
+      <c r="C1" s="1"/>
+      <c r="D1" s="1"/>
+      <c r="E1" s="1"/>
+      <c r="F1" s="1"/>
+      <c r="G1" s="1"/>
+      <c r="H1" s="1"/>
+      <c r="I1" s="1"/>
+      <c r="J1" s="1"/>
+      <c r="K1" s="1"/>
+      <c r="L1" s="1"/>
+      <c r="M1" s="1"/>
+      <c r="N1" s="1"/>
+      <c r="O1" s="1"/>
     </row>
-    <row r="2" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A2" t="s">
-        <v>2</v>
-      </c>
-      <c r="E2" s="1"/>
-      <c r="F2" s="1"/>
-      <c r="G2" s="1"/>
-      <c r="H2" s="4" t="s">
-        <v>5</v>
-      </c>
-      <c r="I2" s="1"/>
-      <c r="J2" s="1"/>
-      <c r="K2" s="1"/>
-      <c r="P2" t="s">
-        <v>2</v>
-      </c>
+    <row r="2" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A2" s="1"/>
+      <c r="B2" s="2"/>
+      <c r="C2" s="2"/>
+      <c r="D2" s="2"/>
+      <c r="E2" s="3"/>
+      <c r="F2" s="10"/>
+      <c r="G2" s="3"/>
+      <c r="H2" s="2"/>
+      <c r="I2" s="3"/>
+      <c r="J2" s="3"/>
+      <c r="K2" s="3"/>
+      <c r="L2" s="2"/>
+      <c r="M2" s="6"/>
+      <c r="O2" s="1"/>
     </row>
-    <row r="3" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A3" t="s">
-        <v>2</v>
-      </c>
-      <c r="B3" t="s">
+    <row r="3" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A3" s="1"/>
+      <c r="B3" s="2"/>
+      <c r="C3" s="2"/>
+      <c r="L3" s="2"/>
+      <c r="M3" s="2"/>
+      <c r="O3" s="1"/>
+    </row>
+    <row r="4" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A4" s="1"/>
+      <c r="B4" s="2"/>
+      <c r="C4" s="2"/>
+      <c r="D4" s="4"/>
+      <c r="E4" s="5"/>
+      <c r="F4" s="3"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="5"/>
+      <c r="I4" s="2"/>
+      <c r="J4" s="4"/>
+      <c r="K4" s="5"/>
+      <c r="L4" s="2"/>
+      <c r="M4" s="2"/>
+      <c r="O4" s="1"/>
+    </row>
+    <row r="5" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A5" s="1"/>
+      <c r="B5" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="E3" s="1"/>
-      <c r="F3" s="1"/>
-      <c r="G3" s="1"/>
-      <c r="H3" s="3"/>
-      <c r="I3" s="3"/>
-      <c r="J3" s="3"/>
-      <c r="K3" s="3"/>
-      <c r="P3" t="s">
-        <v>2</v>
-      </c>
+      <c r="C5" s="2"/>
+      <c r="D5" s="9"/>
+      <c r="E5" s="9"/>
+      <c r="F5" s="9"/>
+      <c r="G5" s="9"/>
+      <c r="H5" s="9"/>
+      <c r="I5" s="9"/>
+      <c r="J5" s="2"/>
+      <c r="K5" s="2"/>
+      <c r="L5" s="2"/>
+      <c r="M5" s="2"/>
+      <c r="O5" s="1"/>
     </row>
-    <row r="4" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A4" t="s">
-        <v>2</v>
-      </c>
-      <c r="E4" s="1"/>
-      <c r="F4" s="1"/>
-      <c r="G4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="H4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="I4" s="2" t="s">
-        <v>4</v>
-      </c>
-      <c r="J4" s="3"/>
-      <c r="K4" s="3"/>
-      <c r="P4" t="s">
-        <v>2</v>
-      </c>
+    <row r="6" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A6" s="1"/>
+      <c r="B6" s="2"/>
+      <c r="C6" s="2"/>
+      <c r="D6" s="9"/>
+      <c r="E6" s="9"/>
+      <c r="F6" s="9"/>
+      <c r="G6" s="3"/>
+      <c r="H6" s="9"/>
+      <c r="I6" s="2"/>
+      <c r="J6" s="2"/>
+      <c r="K6" s="2"/>
+      <c r="L6" s="2"/>
+      <c r="M6" s="13"/>
+      <c r="O6" s="1"/>
     </row>
-    <row r="5" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A5" t="s">
-        <v>2</v>
-      </c>
-      <c r="E5" s="1"/>
-      <c r="F5" s="1"/>
-      <c r="G5" s="1"/>
-      <c r="H5" s="3"/>
-      <c r="I5" s="3"/>
-      <c r="J5" s="3"/>
-      <c r="K5" s="3"/>
-      <c r="P5" t="s">
-        <v>2</v>
-      </c>
+    <row r="7" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A7" s="1"/>
+      <c r="B7" s="2"/>
+      <c r="C7" s="8"/>
+      <c r="D7" s="8"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="5"/>
+      <c r="G7" s="2"/>
+      <c r="H7" s="2"/>
+      <c r="I7" s="4"/>
+      <c r="J7" s="5"/>
+      <c r="K7" s="2"/>
+      <c r="L7" s="2"/>
+      <c r="M7" s="12"/>
+      <c r="O7" s="1"/>
     </row>
-    <row r="6" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A6" t="s">
-        <v>2</v>
-      </c>
-      <c r="H6" s="3"/>
-      <c r="I6" s="3"/>
-      <c r="J6" s="3"/>
-      <c r="K6" t="s">
-        <v>3</v>
-      </c>
-      <c r="O6" t="s">
+    <row r="8" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A8" s="1"/>
+      <c r="B8" s="7"/>
+      <c r="C8" s="8"/>
+      <c r="D8" s="8"/>
+      <c r="E8" s="2"/>
+      <c r="F8" s="9"/>
+      <c r="G8" s="2"/>
+      <c r="H8" s="2"/>
+      <c r="I8" s="2"/>
+      <c r="J8" s="2"/>
+      <c r="K8" s="2"/>
+      <c r="L8" s="2"/>
+      <c r="M8" s="11"/>
+      <c r="N8" s="2" t="s">
         <v>1</v>
       </c>
-      <c r="P6" t="s">
-        <v>2</v>
-      </c>
+      <c r="O8" s="1"/>
     </row>
-    <row r="7" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A7" t="s">
-        <v>2</v>
-      </c>
-      <c r="F7" s="3" t="s">
-        <v>6</v>
-      </c>
-      <c r="G7" s="3" t="s">
-        <v>7</v>
-      </c>
-      <c r="H7" s="3"/>
-      <c r="I7" s="3"/>
-      <c r="J7" s="3"/>
-      <c r="P7" t="s">
-        <v>2</v>
-      </c>
+    <row r="9" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A9" s="1"/>
+      <c r="C9" s="8"/>
+      <c r="D9" s="8"/>
+      <c r="F9" s="9"/>
+      <c r="M9" s="13"/>
+      <c r="O9" s="1"/>
     </row>
-    <row r="8" spans="1:16" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
-      <c r="A8" t="s">
-        <v>2</v>
-      </c>
-      <c r="B8" t="s">
-        <v>2</v>
-      </c>
-      <c r="C8" t="s">
-        <v>2</v>
-      </c>
-      <c r="D8" t="s">
-        <v>2</v>
-      </c>
-      <c r="E8" t="s">
-        <v>2</v>
-      </c>
-      <c r="F8" t="s">
-        <v>2</v>
-      </c>
-      <c r="G8" t="s">
-        <v>2</v>
-      </c>
-      <c r="H8" t="s">
-        <v>2</v>
-      </c>
-      <c r="I8" t="s">
-        <v>2</v>
-      </c>
-      <c r="J8" t="s">
-        <v>2</v>
-      </c>
-      <c r="K8" t="s">
-        <v>2</v>
-      </c>
-      <c r="L8" t="s">
-        <v>2</v>
-      </c>
-      <c r="M8" t="s">
-        <v>2</v>
-      </c>
-      <c r="N8" t="s">
-        <v>2</v>
-      </c>
-      <c r="O8" t="s">
-        <v>2</v>
-      </c>
-      <c r="P8" t="s">
-        <v>2</v>
-      </c>
+    <row r="10" spans="1:15" ht="56.75" customHeight="1" x14ac:dyDescent="0.3">
+      <c r="A10" s="1"/>
+      <c r="B10" s="1"/>
+      <c r="C10" s="1"/>
+      <c r="D10" s="1"/>
+      <c r="E10" s="1"/>
+      <c r="F10" s="1"/>
+      <c r="G10" s="1"/>
+      <c r="H10" s="1"/>
+      <c r="I10" s="1"/>
+      <c r="J10" s="1"/>
+      <c r="K10" s="1"/>
+      <c r="L10" s="1"/>
+      <c r="M10" s="1"/>
+      <c r="N10" s="1"/>
+      <c r="O10" s="1"/>
     </row>
   </sheetData>
   <phoneticPr fontId="1" type="noConversion"/>
